--- a/data/data_fig1a_Morris_and_Zinser_2013.xlsx
+++ b/data/data_fig1a_Morris_and_Zinser_2013.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_and_Ben/Project_5_Hepes_morris_2013/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_and_Ben/Project_5_Hepes_Morris_2013/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F7F0B7-5849-1842-AB6F-52DEE3718486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0969B8B1-BC20-2941-993D-E3C9BDC273F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1740" windowWidth="24980" windowHeight="14500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1740" windowWidth="24980" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="10mM Hepes" sheetId="1" r:id="rId1"/>
-    <sheet name="1 mM Hepes" sheetId="2" r:id="rId2"/>
-    <sheet name="0.1mM Hepes" sheetId="3" r:id="rId3"/>
-    <sheet name="0mM Hepes" sheetId="4" r:id="rId4"/>
-    <sheet name="data source" sheetId="5" r:id="rId5"/>
-    <sheet name="all_Hepes" sheetId="6" r:id="rId6"/>
+    <sheet name="reformat_all" sheetId="7" r:id="rId1"/>
+    <sheet name="10mM Hepes" sheetId="1" r:id="rId2"/>
+    <sheet name="1 mM Hepes" sheetId="2" r:id="rId3"/>
+    <sheet name="0.1mM Hepes" sheetId="3" r:id="rId4"/>
+    <sheet name="0mM Hepes" sheetId="4" r:id="rId5"/>
+    <sheet name="data source" sheetId="5" r:id="rId6"/>
+    <sheet name="all_Hepes" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
   <si>
     <t>Time (day)</t>
   </si>
@@ -65,11 +66,17 @@
   <si>
     <t xml:space="preserve">0 mM Hepes </t>
   </si>
+  <si>
+    <t>treatment (milliMolar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -285,7 +292,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -332,6 +339,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2181,6 +2189,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD42F43-3176-2B4A-BC86-3AF97A399F70}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>-6.9110576923076705E-2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.659340659340661</v>
+      </c>
+      <c r="C2" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>1.9818853021978</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3.1868131868131901</v>
+      </c>
+      <c r="C3" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>4.9802541208791196</v>
+      </c>
+      <c r="B4" s="9">
+        <v>6.9780219780219799</v>
+      </c>
+      <c r="C4" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>7.0497081043955996</v>
+      </c>
+      <c r="B5" s="10">
+        <v>11.868131868131901</v>
+      </c>
+      <c r="C5" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>16.131095467032999</v>
+      </c>
+      <c r="B6" s="9">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="C6" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>21.1195054945055</v>
+      </c>
+      <c r="B7" s="10">
+        <v>12.802197802197799</v>
+      </c>
+      <c r="C7" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
+        <v>25.207760989011</v>
+      </c>
+      <c r="B8" s="12">
+        <v>16.098901098901099</v>
+      </c>
+      <c r="C8" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>-6.9110576923076705E-2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.659340659340661</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>0.94994848901098905</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1.0989010989011001</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>2.9910714285714302</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2.3626373626373698</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>6.0486778846153904</v>
+      </c>
+      <c r="B12" s="10">
+        <v>3.7362637362637399</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>10.0476476648352</v>
+      </c>
+      <c r="B13" s="9">
+        <v>5.6043956043955996</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>20.074690934065899</v>
+      </c>
+      <c r="B14" s="10">
+        <v>9.0659340659340693</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
+        <v>25.163976648351699</v>
+      </c>
+      <c r="B15" s="12">
+        <v>10.4945054945055</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>-6.6535027472527403E-2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.98901098901098905</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>0.94780219780219699</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.82417582417582502</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>2.9820570054945099</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1.20879120879121</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>5.9529532967033001</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1.48351648351649</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <v>10.0171703296703</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1.7032967032966999</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <v>20.1000171703297</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2.3076923076923102</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
+        <v>25.102592719780201</v>
+      </c>
+      <c r="B22" s="12">
+        <v>2.63736263736264</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>-6.9110576923076705E-2</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.659340659340661</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>1.96171016483516</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.60439560439560203</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <v>4.9313186813186798</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.71428571428571497</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <v>6.9599931318681296</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.38461538461538702</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>16.0250686813187</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0.71428571428571497</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
+        <v>21.0250686813187</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.71428571428571497</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="11">
+        <v>25.087139423076898</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0.659340659340661</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2280,7 +2626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2380,7 +2726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2480,7 +2826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2580,7 +2926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2618,11 +2964,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140DA111-0EFC-C64F-BCAC-C9750B81D853}">
   <dimension ref="B2:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
@@ -2638,7 +2984,7 @@
       </c>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="2:3" ht="42" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2708,7 +3054,7 @@
       </c>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="2:3" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2778,7 +3124,7 @@
       </c>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="2:3" ht="42" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
@@ -2848,7 +3194,7 @@
       </c>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="2:3" ht="42" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
